--- a/output/fit_clients/fit_round_191.xlsx
+++ b/output/fit_clients/fit_round_191.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1680978532.616172</v>
+        <v>2165187035.467503</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1108103615686449</v>
+        <v>0.1116528891494246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03699044472965927</v>
+        <v>0.03131806735838237</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>840489219.0339696</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2205238544.921143</v>
+        <v>1856240434.022956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1795294241327157</v>
+        <v>0.1807782967551992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03226486452750792</v>
+        <v>0.04959827273323754</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1102619344.28059</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3162816669.128996</v>
+        <v>3789139878.308393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1225062175904256</v>
+        <v>0.1595693580863645</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03080509874218198</v>
+        <v>0.03175122869037555</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>69</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1581408289.408858</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3184890194.624749</v>
+        <v>3454819319.870901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07963359655173312</v>
+        <v>0.09884779537390694</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04132188868371763</v>
+        <v>0.04716727439066146</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1592445154.879771</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2646853432.218264</v>
+        <v>2289697284.446446</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1340039190024956</v>
+        <v>0.1478603519821741</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05605208166834624</v>
+        <v>0.05157867782173859</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1323426675.676229</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2869644779.535471</v>
+        <v>2301803879.500947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09670865323262266</v>
+        <v>0.09657930764142854</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04953370874211725</v>
+        <v>0.04428220967003273</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1434822367.17358</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3039281652.97924</v>
+        <v>3984473639.326703</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2054014717394151</v>
+        <v>0.1479956935590118</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03012494699203018</v>
+        <v>0.02281029687255894</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>61</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1519640887.996399</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1776892660.210906</v>
+        <v>1634584889.511563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1505307737563134</v>
+        <v>0.1426442895965312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02957188948849153</v>
+        <v>0.02970455469416219</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>888446387.6342521</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4533840477.418691</v>
+        <v>3635057239.074992</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1753911221267763</v>
+        <v>0.1939554574639687</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03849871317208745</v>
+        <v>0.05265812863509549</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>80</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2266920301.893198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3594919680.540346</v>
+        <v>3955701085.405269</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1736284321860141</v>
+        <v>0.1700601005742448</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04888947856586877</v>
+        <v>0.03776898881107399</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>79</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1797459824.680965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2843380295.625719</v>
+        <v>2157781840.680105</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1549335338710948</v>
+        <v>0.1908965622220176</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03389329203431044</v>
+        <v>0.04261707995959577</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>68</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1421690151.470242</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3637877073.173524</v>
+        <v>3217771785.20468</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08888177728875142</v>
+        <v>0.0782673269745164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02104863310124607</v>
+        <v>0.02875391862433891</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>64</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1818938609.889252</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2992215617.007429</v>
+        <v>2991974799.786955</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1265248520050764</v>
+        <v>0.1600166208227367</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03709548290199773</v>
+        <v>0.04047223832861473</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1496107843.481901</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1606316699.343832</v>
+        <v>1431441413.684204</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09417297149417303</v>
+        <v>0.07767624547472106</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03707574100270031</v>
+        <v>0.04405230312813389</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>803158459.2552811</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2420949037.310243</v>
+        <v>2577980142.784767</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08183678530933888</v>
+        <v>0.1104440153132813</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03641079772183139</v>
+        <v>0.04423436787099792</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1210474556.511055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5291229629.989667</v>
+        <v>4232417152.294618</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1638141903580773</v>
+        <v>0.150894717701002</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04692056214086134</v>
+        <v>0.04629029077117142</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>56</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2645614785.741194</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3097194707.575726</v>
+        <v>3310050190.942403</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1642211514911115</v>
+        <v>0.1669492838401117</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03304702047972632</v>
+        <v>0.02711418582937047</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>63</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1548597377.039351</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1108303399.50187</v>
+        <v>900670231.9528259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1834472884368284</v>
+        <v>0.186283786803666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02154934813269719</v>
+        <v>0.02064492160139398</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>554151755.3333248</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2424191600.257379</v>
+        <v>1830305228.015356</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1262006660906377</v>
+        <v>0.1526239886596417</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0280374044774304</v>
+        <v>0.03090267822037295</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1212095781.271116</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1982391865.627029</v>
+        <v>1862073921.439539</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0779662348753829</v>
+        <v>0.08149863961850684</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02905692163539785</v>
+        <v>0.04362433525997091</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>991195970.4490165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2875026663.459994</v>
+        <v>3980242350.227951</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09549960518953968</v>
+        <v>0.1212253084129057</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03891458691941392</v>
+        <v>0.04961339373777329</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1437513400.722988</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1109175082.65394</v>
+        <v>1401827100.647546</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1763808467622723</v>
+        <v>0.1524447320888262</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04136546744423757</v>
+        <v>0.05194545163723448</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>554587593.100028</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4055198375.807838</v>
+        <v>2570725429.145361</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09426190214782393</v>
+        <v>0.1130114630830947</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02535338160729381</v>
+        <v>0.02666362322102238</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>56</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2027599152.135898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>900584350.3022003</v>
+        <v>1390095797.454762</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07771951123924319</v>
+        <v>0.1104813959715594</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02139174813925056</v>
+        <v>0.0219703252772257</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>450292261.999851</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1069662467.518403</v>
+        <v>1122180673.24815</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1176156681203436</v>
+        <v>0.09693995903974227</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02578326007775502</v>
+        <v>0.03358132776866969</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>534831222.8383761</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3699568541.563608</v>
+        <v>4683543029.217595</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1391461264373564</v>
+        <v>0.12053772546928</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02242676567080414</v>
+        <v>0.02353822742539666</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1849784295.81012</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2515576445.752141</v>
+        <v>3148006001.752651</v>
       </c>
       <c r="F28" t="n">
-        <v>0.129083712677616</v>
+        <v>0.1166588266658479</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03105628296912932</v>
+        <v>0.04337280610517655</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>62</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1257788192.047806</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5264800465.192327</v>
+        <v>4859514465.983691</v>
       </c>
       <c r="F29" t="n">
-        <v>0.142058860109194</v>
+        <v>0.09327196771252008</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03915718005945464</v>
+        <v>0.03121246298970019</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>86</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2632400161.76617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2204817749.059101</v>
+        <v>2077223224.993987</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1349129508185131</v>
+        <v>0.1190246404200467</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02738566506510706</v>
+        <v>0.03969466822315819</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1102408935.27762</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1386618026.1045</v>
+        <v>1483440950.546416</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09858565117740842</v>
+        <v>0.06993093349144477</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05152436703997309</v>
+        <v>0.03410058876093935</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>693308920.5653414</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1183679146.341342</v>
+        <v>1522097840.434235</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09206259146778777</v>
+        <v>0.1059361551254284</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02537612147059256</v>
+        <v>0.02912399395637953</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>591839575.9748213</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2739455416.326936</v>
+        <v>1957902319.669004</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1722443110054226</v>
+        <v>0.1630083605725306</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05012006677849831</v>
+        <v>0.04135043134386159</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1369727725.973195</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1465262372.214545</v>
+        <v>1048753717.557196</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08531022637938446</v>
+        <v>0.1180984458984541</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01895480326427072</v>
+        <v>0.02083810625469482</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>732631147.6774828</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1362180851.556721</v>
+        <v>1011522886.824368</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1042538384576188</v>
+        <v>0.08650913361925841</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03022618119220368</v>
+        <v>0.02916472313992004</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>681090364.9186269</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2973035230.855462</v>
+        <v>2973490013.464867</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133770827137543</v>
+        <v>0.1494934845172362</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02039083467075816</v>
+        <v>0.02750244338004408</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1486517599.492235</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2185004240.406997</v>
+        <v>2563340594.968617</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1073991681308354</v>
+        <v>0.07593383262259666</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03038143179171801</v>
+        <v>0.02927701406353699</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1092502172.917359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1525028823.1841</v>
+        <v>2174134457.01659</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07675227934118291</v>
+        <v>0.07841845981657625</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03857173503349196</v>
+        <v>0.036241998622818</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>762514457.2896093</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1788514685.189218</v>
+        <v>1529494495.661819</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1707553351635147</v>
+        <v>0.1216197093573138</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03217641151580027</v>
+        <v>0.02661878270141475</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>894257369.2004905</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1537298804.111275</v>
+        <v>1175831083.845219</v>
       </c>
       <c r="F40" t="n">
-        <v>0.14808417713468</v>
+        <v>0.09893640164583711</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04598143661301281</v>
+        <v>0.03842788606649579</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>768649358.8890026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2366298736.982316</v>
+        <v>2826879551.83927</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1461045907179311</v>
+        <v>0.1180141970513614</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04561380829431783</v>
+        <v>0.04449627188400283</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1183149406.873223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2776523770.456779</v>
+        <v>3733734749.405269</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1197656178237626</v>
+        <v>0.1104627961776849</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02884623387840381</v>
+        <v>0.03125226887445044</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1388261830.250154</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2451940345.171551</v>
+        <v>2818473024.391825</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1954983268069175</v>
+        <v>0.1467293129959224</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02419919664824025</v>
+        <v>0.02142231740529033</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1225970226.064736</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1692534387.84882</v>
+        <v>1913955524.43934</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06517148186431411</v>
+        <v>0.09714137720578278</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02294291831718185</v>
+        <v>0.02767057357870168</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>846267238.8883085</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2434077740.942813</v>
+        <v>2460744124.102814</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1345829141151147</v>
+        <v>0.1278008945612288</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03989560732552606</v>
+        <v>0.05303512080864697</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1217038905.044473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4512720355.280041</v>
+        <v>4246873797.102254</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1632362538561673</v>
+        <v>0.14749587730796</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05035266933285473</v>
+        <v>0.04944397960014334</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>68</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2256360176.496592</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3799603273.442806</v>
+        <v>3781602440.056244</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1443651082199783</v>
+        <v>0.1689619481064163</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04133302358130817</v>
+        <v>0.05247340130492279</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>51</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1899801624.511451</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3689429095.544168</v>
+        <v>3356519658.295382</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08360966907691932</v>
+        <v>0.06636462817734615</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03034962541854224</v>
+        <v>0.02533682220476854</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1844714600.157804</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1250182947.847533</v>
+        <v>1908619511.049729</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1957634907647789</v>
+        <v>0.1651051904056214</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0364905789526451</v>
+        <v>0.03794260387483826</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>625091544.7605346</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3242948119.776747</v>
+        <v>3593678930.933928</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1220046416927057</v>
+        <v>0.1223146389161829</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03333219823025101</v>
+        <v>0.05026837178034343</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>65</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1621474102.405058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1243029544.927608</v>
+        <v>1135168318.082698</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1661695967720846</v>
+        <v>0.182434589675836</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04644817247486838</v>
+        <v>0.04574057662543536</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>621514817.0072442</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3730308476.664058</v>
+        <v>3735964095.238522</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1291736788664596</v>
+        <v>0.1164303197057592</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0606517357055962</v>
+        <v>0.04970160990820884</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>79</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1865154310.659609</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3542275207.683764</v>
+        <v>3532354756.969828</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1241774499181806</v>
+        <v>0.1712206051660229</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0353706077661827</v>
+        <v>0.02571751315386619</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>55</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1771137598.840803</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3017907685.05468</v>
+        <v>3734322176.720645</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1278719032092301</v>
+        <v>0.13046401057833</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04921692174018302</v>
+        <v>0.04908208132274929</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>62</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1508953829.461843</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4059647260.960904</v>
+        <v>3663202204.210667</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1373911323328088</v>
+        <v>0.1849649690358544</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02120781270804834</v>
+        <v>0.02004777422353065</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2029823607.98818</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1468553360.944144</v>
+        <v>1324839389.657812</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1601656525568601</v>
+        <v>0.1007905090825725</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05682680188206093</v>
+        <v>0.0570004958699616</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>734276727.3774794</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4126489486.120074</v>
+        <v>3146638650.41918</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1116191289136159</v>
+        <v>0.1457256177318733</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01786192561820757</v>
+        <v>0.02220302166684329</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>62</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2063244842.032158</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1511693418.241563</v>
+        <v>1647837334.800169</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1580309330547661</v>
+        <v>0.1651653852937105</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02956870199735643</v>
+        <v>0.02902477837333498</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>755846739.158314</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3588252317.344931</v>
+        <v>5358247669.008506</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0976399730559448</v>
+        <v>0.0913888732532018</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04410476402168129</v>
+        <v>0.04977746141708762</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1794126154.461596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3002628645.502168</v>
+        <v>3060288000.26039</v>
       </c>
       <c r="F60" t="n">
-        <v>0.143150876752334</v>
+        <v>0.1958441783021951</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02300881793251284</v>
+        <v>0.02687987118462795</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1501314393.352464</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2763742221.169004</v>
+        <v>2084276485.36168</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1793716804071284</v>
+        <v>0.1106070910423351</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03221881388394704</v>
+        <v>0.02688144888443403</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1381871113.310392</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1321866229.334149</v>
+        <v>2115852467.151953</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1297681107061269</v>
+        <v>0.1271682307222115</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03731871223870657</v>
+        <v>0.0448220081083966</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>660933070.9395423</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5502635896.008025</v>
+        <v>4834033071.428183</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07021225239668524</v>
+        <v>0.0892147843661346</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04480951545828686</v>
+        <v>0.03578234565580161</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2751317943.302637</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4831139652.634362</v>
+        <v>4142688907.289315</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1754908377399452</v>
+        <v>0.1196056080269658</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03314518844329403</v>
+        <v>0.03084053684651496</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>59</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2415569920.618006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5556654553.684455</v>
+        <v>4606839687.983931</v>
       </c>
       <c r="F65" t="n">
-        <v>0.110200358301942</v>
+        <v>0.1203699321894209</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0293110557146904</v>
+        <v>0.03070130323362362</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>69</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2778327202.501704</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4941813159.628104</v>
+        <v>4888227186.84242</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1059035393600621</v>
+        <v>0.1031076970274398</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03551898438835738</v>
+        <v>0.0467488982267685</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>56</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2470906603.836244</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2419000588.282968</v>
+        <v>2342506077.097171</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06728755777195808</v>
+        <v>0.07277862889062495</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04188216134261133</v>
+        <v>0.03779088727115006</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>61</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1209500361.538251</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4306620800.634689</v>
+        <v>3870347183.583441</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1112629087168666</v>
+        <v>0.1189720371905122</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04010069690003761</v>
+        <v>0.03640268759317256</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2153310414.664182</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2250542310.134503</v>
+        <v>1971298620.66005</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1256716074331559</v>
+        <v>0.1269751807374813</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05181100741244959</v>
+        <v>0.04865894373952136</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1125271192.392635</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3224484874.889196</v>
+        <v>3111283904.86459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08742136211833301</v>
+        <v>0.09568321771592798</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03533474505909947</v>
+        <v>0.04128678077916972</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>55</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1612242429.002175</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4819287746.018521</v>
+        <v>3847072827.724184</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1636599722553148</v>
+        <v>0.1351166594660439</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02390160245155653</v>
+        <v>0.02999717687455935</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>70</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2409643965.178001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1671947256.420965</v>
+        <v>1860374878.128289</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1068173090522066</v>
+        <v>0.06789875185555744</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03574962954476869</v>
+        <v>0.04368341324893372</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>835973627.43864</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3443078536.700524</v>
+        <v>2958307101.069098</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08193091331843846</v>
+        <v>0.1020132737697225</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03208696883771999</v>
+        <v>0.04106460180297093</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>72</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1721539223.741806</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2897714672.189934</v>
+        <v>2422830152.620457</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1497965038456428</v>
+        <v>0.1844971676658148</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02242001512374396</v>
+        <v>0.03183868999413094</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>65</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1448857410.309297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2116261414.072214</v>
+        <v>2300394964.188528</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1109878140097329</v>
+        <v>0.1276264362701868</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02738785270049637</v>
+        <v>0.03388167171899012</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1058130660.296308</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4067089596.06911</v>
+        <v>5244345760.911312</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1144780773729611</v>
+        <v>0.07928139128550601</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02532122601658095</v>
+        <v>0.03027307946075582</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2033544785.511596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1460298642.478621</v>
+        <v>1405194038.827354</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1577420814549086</v>
+        <v>0.1502847038594316</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02126671590758878</v>
+        <v>0.02947198946502246</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>730149303.072192</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3611727292.126691</v>
+        <v>4506493654.240661</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08266694634487295</v>
+        <v>0.0957735382664269</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05436206366978889</v>
+        <v>0.05032414493309895</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>67</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1805863639.529473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1183051037.02284</v>
+        <v>1305695337.793021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1520608710881257</v>
+        <v>0.1308949686260133</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03904280509276455</v>
+        <v>0.03348272862072529</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>591525497.2345425</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5536924049.593112</v>
+        <v>3866710735.505566</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1044863125102668</v>
+        <v>0.08367282759773274</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03180233156253424</v>
+        <v>0.03509584099987199</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>40</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2768462100.679025</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4542464962.00124</v>
+        <v>3476436441.205517</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09067768904982823</v>
+        <v>0.1270702903080883</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03157566116084877</v>
+        <v>0.0300212788982912</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2271232464.300814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4065803640.024954</v>
+        <v>4870674118.041286</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2053946856803177</v>
+        <v>0.2145628960632991</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02510675030518472</v>
+        <v>0.01840015016527628</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2032901856.083332</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2257884129.078095</v>
+        <v>1954843189.847173</v>
       </c>
       <c r="F83" t="n">
-        <v>0.100072471047988</v>
+        <v>0.1049948954830079</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04346708057499173</v>
+        <v>0.03273089684651988</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1128942081.947432</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1788693010.484156</v>
+        <v>2157818861.914913</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07849127914839113</v>
+        <v>0.1089893332278962</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04386062916671686</v>
+        <v>0.03410086629636825</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>894346541.1521949</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3678082315.012147</v>
+        <v>3271028628.232886</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1399243511348622</v>
+        <v>0.1679846512102143</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03770444890379606</v>
+        <v>0.05631046892404327</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>71</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1839041292.494943</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2302181012.19464</v>
+        <v>1913836274.675653</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1537816763678249</v>
+        <v>0.168329116518778</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01902785573555698</v>
+        <v>0.02504563277658103</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1151090575.734027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1020479908.862401</v>
+        <v>916814856.3856369</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1235390340427054</v>
+        <v>0.1460483543847183</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02894428121444625</v>
+        <v>0.02909841270354516</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>510239963.9810901</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2902862747.009215</v>
+        <v>2651116122.149827</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1289731741251559</v>
+        <v>0.1208874558833173</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02998782947326268</v>
+        <v>0.03045063948656036</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>76</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1451431394.324683</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3353215987.795849</v>
+        <v>3183251510.463197</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1230929466695468</v>
+        <v>0.1154418178652389</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02823655383426303</v>
+        <v>0.02831316030578973</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>65</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1676608006.08091</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1675970627.617511</v>
+        <v>1974054003.872413</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1199587107998943</v>
+        <v>0.1179042929967646</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0438729041297156</v>
+        <v>0.04406711155364313</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>837985324.7238134</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1753183004.729302</v>
+        <v>1919584740.98081</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1639551868715366</v>
+        <v>0.1327213761788417</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03955861619037352</v>
+        <v>0.05840637442724308</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>876591507.5077902</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2190609825.726682</v>
+        <v>1950897375.955811</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0688432054394609</v>
+        <v>0.08673385602060038</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03905927768148493</v>
+        <v>0.04053921450268472</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1095304873.402493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3827086055.734423</v>
+        <v>4627120596.462093</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1015649904694591</v>
+        <v>0.09954611584063884</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03881858048759618</v>
+        <v>0.04218576711135858</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>57</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1913543039.642361</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1580452102.750192</v>
+        <v>2465012762.613411</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1579510286715691</v>
+        <v>0.1484289739622787</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03280777881333949</v>
+        <v>0.03708794592353869</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>790225995.0662349</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3210724420.096823</v>
+        <v>2807996814.186841</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1243824400340107</v>
+        <v>0.09958409802024448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04253178469287158</v>
+        <v>0.03852807112571757</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>45</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1605362194.41408</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2071891487.986238</v>
+        <v>1593283165.928985</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1407728654735854</v>
+        <v>0.1021393646182783</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04618156707416094</v>
+        <v>0.03568274156918192</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1035945723.280048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4939954446.860182</v>
+        <v>4988320333.514424</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1088096634241479</v>
+        <v>0.1065794473087162</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0222789506374193</v>
+        <v>0.020321447573726</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>64</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2469977355.378284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3680542698.430929</v>
+        <v>2919324755.648473</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1004974016308537</v>
+        <v>0.09062118662710898</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03094383643368476</v>
+        <v>0.02991807485125585</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>50</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1840271380.027228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3291256035.655088</v>
+        <v>2341811433.010336</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1189002351832433</v>
+        <v>0.1084349704117516</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03210500367543137</v>
+        <v>0.03069816445244274</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>59</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1645628024.868023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3172423926.594018</v>
+        <v>4812328046.204012</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1238861667138614</v>
+        <v>0.1772664740748519</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01731522209644393</v>
+        <v>0.01900129862624532</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>59</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1586211967.881156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3230130629.416412</v>
+        <v>2887803148.069315</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1672753731882025</v>
+        <v>0.1448319660457838</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04541016803415573</v>
+        <v>0.0418505689335031</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>76</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1615065434.194211</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_191.xlsx
+++ b/output/fit_clients/fit_round_191.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2165187035.467503</v>
+        <v>2493237692.454773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1116528891494246</v>
+        <v>0.09623535214607043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03131806735838237</v>
+        <v>0.03073334354151456</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1856240434.022956</v>
+        <v>2183567599.05269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1807782967551992</v>
+        <v>0.1642599067295128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04959827273323754</v>
+        <v>0.03103662792168321</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3789139878.308393</v>
+        <v>5018188664.083261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1595693580863645</v>
+        <v>0.1402296952829223</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03175122869037555</v>
+        <v>0.03068187528345673</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3454819319.870901</v>
+        <v>4121193080.0459</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09884779537390694</v>
+        <v>0.07388162212897213</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04716727439066146</v>
+        <v>0.04326991303975029</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2289697284.446446</v>
+        <v>2047241035.133379</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1478603519821741</v>
+        <v>0.1372085542316049</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05157867782173859</v>
+        <v>0.04253325328720162</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2301803879.500947</v>
+        <v>2405069883.269938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09657930764142854</v>
+        <v>0.06728167229250359</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04428220967003273</v>
+        <v>0.04731953401849008</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3984473639.326703</v>
+        <v>2955107947.056115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1479956935590118</v>
+        <v>0.1712774537936548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02281029687255894</v>
+        <v>0.03148305823795099</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1634584889.511563</v>
+        <v>1490753127.946972</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1426442895965312</v>
+        <v>0.1832960537024571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02970455469416219</v>
+        <v>0.03431291060007788</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3635057239.074992</v>
+        <v>5160304080.627884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1939554574639687</v>
+        <v>0.1996763249936192</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05265812863509549</v>
+        <v>0.04474429505432614</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3955701085.405269</v>
+        <v>3317011083.677245</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1700601005742448</v>
+        <v>0.1760171195629995</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03776898881107399</v>
+        <v>0.04950075780701951</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2157781840.680105</v>
+        <v>2808945552.952419</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1908965622220176</v>
+        <v>0.1328417847443464</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04261707995959577</v>
+        <v>0.04240435272953632</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3217771785.20468</v>
+        <v>5320135384.126205</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0782673269745164</v>
+        <v>0.08959232612156952</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02875391862433891</v>
+        <v>0.02904214381638831</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2991974799.786955</v>
+        <v>3723377614.552903</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1600166208227367</v>
+        <v>0.1701168759163701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04047223832861473</v>
+        <v>0.02736647258857957</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1431441413.684204</v>
+        <v>1662417811.299992</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07767624547472106</v>
+        <v>0.09675396928908869</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04405230312813389</v>
+        <v>0.03550896305973028</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2577980142.784767</v>
+        <v>1792395182.466604</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1104440153132813</v>
+        <v>0.08578335458769856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04423436787099792</v>
+        <v>0.03210344769424794</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4232417152.294618</v>
+        <v>5222516935.446311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.150894717701002</v>
+        <v>0.1609844268337789</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04629029077117142</v>
+        <v>0.0429192542021616</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3310050190.942403</v>
+        <v>2483909248.14222</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1669492838401117</v>
+        <v>0.1698831702353267</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02711418582937047</v>
+        <v>0.03425427329651984</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>900670231.9528259</v>
+        <v>1280421155.36964</v>
       </c>
       <c r="F19" t="n">
-        <v>0.186283786803666</v>
+        <v>0.1521983491246224</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02064492160139398</v>
+        <v>0.02464099618008485</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1830305228.015356</v>
+        <v>2054791091.795552</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1526239886596417</v>
+        <v>0.1178807701468785</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03090267822037295</v>
+        <v>0.02882029503961958</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1862073921.439539</v>
+        <v>2405515803.42573</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08149863961850684</v>
+        <v>0.100579386015595</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04362433525997091</v>
+        <v>0.03549533550036597</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3980242350.227951</v>
+        <v>3920779395.465138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1212253084129057</v>
+        <v>0.1374862857595584</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04961339373777329</v>
+        <v>0.05645396793368876</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1401827100.647546</v>
+        <v>1016608771.511178</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1524447320888262</v>
+        <v>0.140560884197141</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05194545163723448</v>
+        <v>0.05000155962338363</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2570725429.145361</v>
+        <v>4150517690.05055</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1130114630830947</v>
+        <v>0.115110318234005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02666362322102238</v>
+        <v>0.0328686573227206</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1390095797.454762</v>
+        <v>1282323290.173685</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1104813959715594</v>
+        <v>0.0756492900416386</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0219703252772257</v>
+        <v>0.02666000255857593</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1122180673.24815</v>
+        <v>1270794636.627442</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09693995903974227</v>
+        <v>0.1029018340371471</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03358132776866969</v>
+        <v>0.02608916143508482</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4683543029.217595</v>
+        <v>3691267803.997478</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12053772546928</v>
+        <v>0.1465276937851913</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02353822742539666</v>
+        <v>0.01643327314155671</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3148006001.752651</v>
+        <v>3747738785.142948</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1166588266658479</v>
+        <v>0.1125228503734455</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04337280610517655</v>
+        <v>0.04622566015739751</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4859514465.983691</v>
+        <v>3784385694.953092</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09327196771252008</v>
+        <v>0.1126537777326335</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03121246298970019</v>
+        <v>0.03856892099865316</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2077223224.993987</v>
+        <v>2020820392.192496</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1190246404200467</v>
+        <v>0.1129100839574964</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03969466822315819</v>
+        <v>0.03131908678866304</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1483440950.546416</v>
+        <v>1065815660.613202</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06993093349144477</v>
+        <v>0.08660873060755497</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03410058876093935</v>
+        <v>0.0423818502994503</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1522097840.434235</v>
+        <v>1484780148.141447</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1059361551254284</v>
+        <v>0.08625820485836504</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02912399395637953</v>
+        <v>0.03877278686018596</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1957902319.669004</v>
+        <v>2614084391.3822</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1630083605725306</v>
+        <v>0.1416179683768284</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04135043134386159</v>
+        <v>0.03697870128435255</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1048753717.557196</v>
+        <v>1509429809.116952</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1180984458984541</v>
+        <v>0.08380061535422638</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02083810625469482</v>
+        <v>0.02768208843960565</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1011522886.824368</v>
+        <v>1204323074.807971</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08650913361925841</v>
+        <v>0.07383372929536776</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02916472313992004</v>
+        <v>0.03464716779739844</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2973490013.464867</v>
+        <v>3072025831.607276</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1494934845172362</v>
+        <v>0.1709363179065742</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02750244338004408</v>
+        <v>0.02106378232216668</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2563340594.968617</v>
+        <v>1804922260.565555</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07593383262259666</v>
+        <v>0.09278974442480782</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02927701406353699</v>
+        <v>0.03214379382416228</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2174134457.01659</v>
+        <v>2010295119.17635</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07841845981657625</v>
+        <v>0.1107405293619325</v>
       </c>
       <c r="G38" t="n">
-        <v>0.036241998622818</v>
+        <v>0.03616104791375659</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1529494495.661819</v>
+        <v>1833838802.791085</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1216197093573138</v>
+        <v>0.1797942781846708</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02661878270141475</v>
+        <v>0.02138833001260174</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1175831083.845219</v>
+        <v>1796580038.546358</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09893640164583711</v>
+        <v>0.1487008126720432</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03842788606649579</v>
+        <v>0.05716640076864384</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2826879551.83927</v>
+        <v>2044638822.957245</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1180141970513614</v>
+        <v>0.1633845266988594</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04449627188400283</v>
+        <v>0.02986029254416625</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3733734749.405269</v>
+        <v>3908979337.725275</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1104627961776849</v>
+        <v>0.1066259639745223</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03125226887445044</v>
+        <v>0.02862578433778125</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2818473024.391825</v>
+        <v>1866557152.07273</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1467293129959224</v>
+        <v>0.1864338212289005</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02142231740529033</v>
+        <v>0.01625434392750531</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1913955524.43934</v>
+        <v>1872543651.219012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09714137720578278</v>
+        <v>0.08793173740627569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02767057357870168</v>
+        <v>0.02935344778975269</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2460744124.102814</v>
+        <v>1664728403.27401</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1278008945612288</v>
+        <v>0.153961696209518</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05303512080864697</v>
+        <v>0.03441771221688031</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4246873797.102254</v>
+        <v>4968916760.173444</v>
       </c>
       <c r="F46" t="n">
-        <v>0.14749587730796</v>
+        <v>0.1670496312335424</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04944397960014334</v>
+        <v>0.05689458129578267</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3781602440.056244</v>
+        <v>3572846081.838324</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1689619481064163</v>
+        <v>0.1362428132953044</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05247340130492279</v>
+        <v>0.04874591943755095</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3356519658.295382</v>
+        <v>3020018383.120713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06636462817734615</v>
+        <v>0.06828485987085299</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02533682220476854</v>
+        <v>0.03622540274732185</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1908619511.049729</v>
+        <v>1887019138.694861</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1651051904056214</v>
+        <v>0.1296121662800406</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03794260387483826</v>
+        <v>0.03232998677497888</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3593678930.933928</v>
+        <v>3473945227.322951</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1223146389161829</v>
+        <v>0.1517445066465062</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05026837178034343</v>
+        <v>0.05011598310163056</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1135168318.082698</v>
+        <v>1174817708.340737</v>
       </c>
       <c r="F51" t="n">
-        <v>0.182434589675836</v>
+        <v>0.1197211321107632</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04574057662543536</v>
+        <v>0.04987707199218292</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3735964095.238522</v>
+        <v>5038188499.72401</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1164303197057592</v>
+        <v>0.08806175512095044</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04970160990820884</v>
+        <v>0.04667299288047817</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3532354756.969828</v>
+        <v>2737956016.27364</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1712206051660229</v>
+        <v>0.198078855949836</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02571751315386619</v>
+        <v>0.02143899845286835</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3734322176.720645</v>
+        <v>4046088853.391395</v>
       </c>
       <c r="F54" t="n">
-        <v>0.13046401057833</v>
+        <v>0.1061347654023335</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04908208132274929</v>
+        <v>0.05222009057721796</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3663202204.210667</v>
+        <v>4006849606.635262</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1849649690358544</v>
+        <v>0.2043450388617855</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02004777422353065</v>
+        <v>0.03032600654705008</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1324839389.657812</v>
+        <v>1802226534.307691</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1007905090825725</v>
+        <v>0.1620841402726054</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0570004958699616</v>
+        <v>0.05202824914559687</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3146638650.41918</v>
+        <v>2865493671.482208</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1457256177318733</v>
+        <v>0.1672706810460509</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02220302166684329</v>
+        <v>0.02440605984962082</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1647837334.800169</v>
+        <v>1312596636.867177</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1651653852937105</v>
+        <v>0.1302336089083728</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02902477837333498</v>
+        <v>0.02575395658722051</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5358247669.008506</v>
+        <v>4686317468.097269</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0913888732532018</v>
+        <v>0.08148725623973851</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04977746141708762</v>
+        <v>0.03079329533462582</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3060288000.26039</v>
+        <v>2481280813.273603</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1958441783021951</v>
+        <v>0.1293022681950045</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02687987118462795</v>
+        <v>0.03178143960054666</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2084276485.36168</v>
+        <v>2399144091.799928</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1106070910423351</v>
+        <v>0.1765170178941917</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02688144888443403</v>
+        <v>0.03125589330327928</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2115852467.151953</v>
+        <v>1300895550.32325</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1271682307222115</v>
+        <v>0.1884508064434121</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0448220081083966</v>
+        <v>0.04344506929124913</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4834033071.428183</v>
+        <v>3629608050.651003</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0892147843661346</v>
+        <v>0.09858489444655076</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03578234565580161</v>
+        <v>0.03876822986737003</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4142688907.289315</v>
+        <v>5083284581.605632</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1196056080269658</v>
+        <v>0.1610489599401267</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03084053684651496</v>
+        <v>0.03382178991563409</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4606839687.983931</v>
+        <v>4294555357.077844</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1203699321894209</v>
+        <v>0.1119813816625445</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03070130323362362</v>
+        <v>0.03040657050871402</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4888227186.84242</v>
+        <v>5678784257.714721</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1031076970274398</v>
+        <v>0.1627970042663826</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0467488982267685</v>
+        <v>0.03292958457319229</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2342506077.097171</v>
+        <v>2208238169.127906</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07277862889062495</v>
+        <v>0.06824630108082072</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03779088727115006</v>
+        <v>0.04397127975577314</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3870347183.583441</v>
+        <v>6082459919.253937</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1189720371905122</v>
+        <v>0.1097123447107788</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03640268759317256</v>
+        <v>0.0359053871882641</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1971298620.66005</v>
+        <v>1783089475.872819</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1269751807374813</v>
+        <v>0.1172563227063519</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04865894373952136</v>
+        <v>0.04503857747018354</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3111283904.86459</v>
+        <v>3357752090.040173</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09568321771592798</v>
+        <v>0.09769697623565973</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04128678077916972</v>
+        <v>0.03655441190250532</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3847072827.724184</v>
+        <v>5023900728.09856</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1351166594660439</v>
+        <v>0.1680525321238995</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02999717687455935</v>
+        <v>0.03413083381525325</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1860374878.128289</v>
+        <v>1499229048.615316</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06789875185555744</v>
+        <v>0.1057872277575072</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04368341324893372</v>
+        <v>0.05194106452363836</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2958307101.069098</v>
+        <v>3069920743.906216</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1020132737697225</v>
+        <v>0.0990083751289392</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04106460180297093</v>
+        <v>0.05076074959005258</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2422830152.620457</v>
+        <v>3556599625.15845</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1844971676658148</v>
+        <v>0.1279545598350374</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03183868999413094</v>
+        <v>0.03031136779813559</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2300394964.188528</v>
+        <v>2491572754.005018</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1276264362701868</v>
+        <v>0.1035402400988012</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03388167171899012</v>
+        <v>0.03446554068978872</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5244345760.911312</v>
+        <v>3638258189.037909</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07928139128550601</v>
+        <v>0.0940241674913851</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03027307946075582</v>
+        <v>0.02765922429248941</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1405194038.827354</v>
+        <v>1891355895.915526</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1502847038594316</v>
+        <v>0.1300881910800947</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02947198946502246</v>
+        <v>0.0191975368260463</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4506493654.240661</v>
+        <v>4034943748.893948</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0957735382664269</v>
+        <v>0.1096556066418235</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05032414493309895</v>
+        <v>0.05643876503123327</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1305695337.793021</v>
+        <v>1650673663.162034</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1308949686260133</v>
+        <v>0.1490741965835755</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03348272862072529</v>
+        <v>0.03731766486576134</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3866710735.505566</v>
+        <v>5211109476.363993</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08367282759773274</v>
+        <v>0.09066468568042985</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03509584099987199</v>
+        <v>0.02495249932447092</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3476436441.205517</v>
+        <v>3394689756.626607</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1270702903080883</v>
+        <v>0.1034364890267842</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0300212788982912</v>
+        <v>0.02177216614548322</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4870674118.041286</v>
+        <v>4411181958.894358</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2145628960632991</v>
+        <v>0.2128385116278964</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01840015016527628</v>
+        <v>0.02357026355062533</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1954843189.847173</v>
+        <v>2227605610.457597</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1049948954830079</v>
+        <v>0.09883108914226918</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03273089684651988</v>
+        <v>0.02812386069584984</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2157818861.914913</v>
+        <v>1682601835.310715</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1089893332278962</v>
+        <v>0.07433090665160615</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03410086629636825</v>
+        <v>0.03647219660080884</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3271028628.232886</v>
+        <v>2258176577.943811</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1679846512102143</v>
+        <v>0.166647140022047</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05631046892404327</v>
+        <v>0.0356751886162518</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1913836274.675653</v>
+        <v>2097835943.702366</v>
       </c>
       <c r="F86" t="n">
-        <v>0.168329116518778</v>
+        <v>0.1215212234332774</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02504563277658103</v>
+        <v>0.02332168591080023</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>916814856.3856369</v>
+        <v>1083668027.463417</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1460483543847183</v>
+        <v>0.1515055695072376</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02909841270354516</v>
+        <v>0.03381022588810495</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2651116122.149827</v>
+        <v>3203730142.167962</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1208874558833173</v>
+        <v>0.1230988708346885</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03045063948656036</v>
+        <v>0.02587588724526635</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3183251510.463197</v>
+        <v>3161840901.741404</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1154418178652389</v>
+        <v>0.1569673411071069</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02831316030578973</v>
+        <v>0.0263232303261369</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1974054003.872413</v>
+        <v>1587140204.52185</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1179042929967646</v>
+        <v>0.1101622685722047</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04406711155364313</v>
+        <v>0.04312596484460523</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1919584740.98081</v>
+        <v>2060462134.95488</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1327213761788417</v>
+        <v>0.1947139095197763</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05840637442724308</v>
+        <v>0.03728921213912773</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1950897375.955811</v>
+        <v>2649472174.584024</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08673385602060038</v>
+        <v>0.09890795006519754</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04053921450268472</v>
+        <v>0.04010984866285237</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4627120596.462093</v>
+        <v>3091659878.893449</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09954611584063884</v>
+        <v>0.1033599114420966</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04218576711135858</v>
+        <v>0.04298083277588183</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2465012762.613411</v>
+        <v>2318021607.588478</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1484289739622787</v>
+        <v>0.1413776874787598</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03708794592353869</v>
+        <v>0.03390819515906532</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2807996814.186841</v>
+        <v>2362564263.937943</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09958409802024448</v>
+        <v>0.1195521976423791</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03852807112571757</v>
+        <v>0.0512232855853848</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1593283165.928985</v>
+        <v>2207652836.25426</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1021393646182783</v>
+        <v>0.09212688102208599</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03568274156918192</v>
+        <v>0.03965215796390043</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4988320333.514424</v>
+        <v>3628880231.373508</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1065794473087162</v>
+        <v>0.1529000970734036</v>
       </c>
       <c r="G97" t="n">
-        <v>0.020321447573726</v>
+        <v>0.01861546653507012</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2919324755.648473</v>
+        <v>3436935962.045352</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09062118662710898</v>
+        <v>0.08433573883586579</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02991807485125585</v>
+        <v>0.031776560787606</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2341811433.010336</v>
+        <v>2931631575.27001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1084349704117516</v>
+        <v>0.09733834958598424</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03069816445244274</v>
+        <v>0.02719973313163191</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4812328046.204012</v>
+        <v>4098630972.313489</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1772664740748519</v>
+        <v>0.1223713128016866</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01900129862624532</v>
+        <v>0.02728657933536239</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2887803148.069315</v>
+        <v>2429944551.391831</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1448319660457838</v>
+        <v>0.1718565469659395</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0418505689335031</v>
+        <v>0.04660601229955589</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_191.xlsx
+++ b/output/fit_clients/fit_round_191.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2493237692.454773</v>
+        <v>2189833240.749352</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09623535214607043</v>
+        <v>0.0927547709660845</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03073334354151456</v>
+        <v>0.03413531041022696</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2183567599.05269</v>
+        <v>2102416829.697617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1642599067295128</v>
+        <v>0.1847485207703243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03103662792168321</v>
+        <v>0.0372496614169059</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5018188664.083261</v>
+        <v>3264067787.899287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1402296952829223</v>
+        <v>0.1629250870595341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03068187528345673</v>
+        <v>0.03204525226595002</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>106</v>
+      </c>
+      <c r="J4" t="n">
+        <v>190</v>
+      </c>
+      <c r="K4" t="n">
+        <v>101.2864380829521</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4121193080.0459</v>
+        <v>3095108848.314115</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07388162212897213</v>
+        <v>0.08496810469331598</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04326991303975029</v>
+        <v>0.03690065566025554</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79</v>
+      </c>
+      <c r="J5" t="n">
+        <v>190</v>
+      </c>
+      <c r="K5" t="n">
+        <v>105.5588098800625</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2047241035.133379</v>
+        <v>2415776745.262929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1372085542316049</v>
+        <v>0.1476218324142264</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04253325328720162</v>
+        <v>0.03868252976329874</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2405069883.269938</v>
+        <v>2419804359.733519</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06728167229250359</v>
+        <v>0.06356869651940182</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04731953401849008</v>
+        <v>0.0406918694592039</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2955107947.056115</v>
+        <v>2690620879.148527</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1712774537936548</v>
+        <v>0.2054019607965305</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03148305823795099</v>
+        <v>0.02859006143053098</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>190</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69.90722015813253</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1490753127.946972</v>
+        <v>1621238815.197692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1832960537024571</v>
+        <v>0.1585670726912072</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03431291060007788</v>
+        <v>0.03512137733341054</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5160304080.627884</v>
+        <v>5136771922.893496</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1996763249936192</v>
+        <v>0.198119172888307</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04474429505432614</v>
+        <v>0.03800181196186509</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>174</v>
+      </c>
+      <c r="J10" t="n">
+        <v>191</v>
+      </c>
+      <c r="K10" t="n">
+        <v>134.911552937023</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3317011083.677245</v>
+        <v>2679318202.950134</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1760171195629995</v>
+        <v>0.1596827357506498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04950075780701951</v>
+        <v>0.04042660379239693</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>78</v>
+      </c>
+      <c r="J11" t="n">
+        <v>188</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2808945552.952419</v>
+        <v>2852483308.051842</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1328417847443464</v>
+        <v>0.190216076987315</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04240435272953632</v>
+        <v>0.03641358628830812</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +894,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5320135384.126205</v>
+        <v>4941403040.659039</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08959232612156952</v>
+        <v>0.09721188497625743</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02904214381638831</v>
+        <v>0.01967092870000796</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>191</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3723377614.552903</v>
+        <v>3020690959.713547</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1701168759163701</v>
+        <v>0.1183950412587244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02736647258857957</v>
+        <v>0.04307670721157399</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>189</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1662417811.299992</v>
+        <v>1251194192.605587</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09675396928908869</v>
+        <v>0.1065564681524138</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03550896305973028</v>
+        <v>0.03690784214243622</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1792395182.466604</v>
+        <v>2498806616.257608</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08578335458769856</v>
+        <v>0.0840487790510191</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03210344769424794</v>
+        <v>0.04347743637136833</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5222516935.446311</v>
+        <v>4668137235.358945</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1609844268337789</v>
+        <v>0.1545417968819771</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0429192542021616</v>
+        <v>0.05022854450068992</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>91</v>
+      </c>
+      <c r="J17" t="n">
+        <v>191</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2483909248.14222</v>
+        <v>2609128757.377897</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1698831702353267</v>
+        <v>0.1566490670717576</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03425427329651984</v>
+        <v>0.03168495234031621</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1280421155.36964</v>
+        <v>923373593.9645262</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1521983491246224</v>
+        <v>0.1909026074922294</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02464099618008485</v>
+        <v>0.01770208950804474</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2054791091.795552</v>
+        <v>2432660590.983292</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1178807701468785</v>
+        <v>0.1399152503697097</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02882029503961958</v>
+        <v>0.02384392688128694</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2405515803.42573</v>
+        <v>1847300656.702567</v>
       </c>
       <c r="F21" t="n">
-        <v>0.100579386015595</v>
+        <v>0.09014338953671661</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03549533550036597</v>
+        <v>0.04336849372552512</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3920779395.465138</v>
+        <v>2633688006.156075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1374862857595584</v>
+        <v>0.09234226935661632</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05645396793368876</v>
+        <v>0.05297574128179219</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>187</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1016608771.511178</v>
+        <v>1438583732.440951</v>
       </c>
       <c r="F23" t="n">
-        <v>0.140560884197141</v>
+        <v>0.1782116953286833</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05000155962338363</v>
+        <v>0.04661661939729528</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4150517690.05055</v>
+        <v>3312911865.279529</v>
       </c>
       <c r="F24" t="n">
-        <v>0.115110318234005</v>
+        <v>0.1392150681792777</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0328686573227206</v>
+        <v>0.0335365199115368</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1282323290.173685</v>
+        <v>1326328552.694801</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0756492900416386</v>
+        <v>0.1196964973292943</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02666000255857593</v>
+        <v>0.02805094530433492</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1270794636.627442</v>
+        <v>923958196.6401926</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029018340371471</v>
+        <v>0.1076346416141974</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02608916143508482</v>
+        <v>0.0370746852980823</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3691267803.997478</v>
+        <v>3293620887.720221</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1465276937851913</v>
+        <v>0.1074389080976961</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01643327314155671</v>
+        <v>0.02720130221084396</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>76</v>
+      </c>
+      <c r="J27" t="n">
+        <v>190</v>
+      </c>
+      <c r="K27" t="n">
+        <v>89.6424485307481</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3747738785.142948</v>
+        <v>3684397228.971694</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1125228503734455</v>
+        <v>0.1125276853982839</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04622566015739751</v>
+        <v>0.04730293626822799</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>191</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3784385694.953092</v>
+        <v>5332822589.829682</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1126537777326335</v>
+        <v>0.1396436924470093</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03856892099865316</v>
+        <v>0.03179065209768107</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>180</v>
+      </c>
+      <c r="J29" t="n">
+        <v>191</v>
+      </c>
+      <c r="K29" t="n">
+        <v>139.8956625945671</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2020820392.192496</v>
+        <v>1534438305.514995</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1129100839574964</v>
+        <v>0.0982255784659596</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03131908678866304</v>
+        <v>0.02870359057188988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1065815660.613202</v>
+        <v>1264632693.430185</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08660873060755497</v>
+        <v>0.1073257682947249</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0423818502994503</v>
+        <v>0.05246374511077276</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1484780148.141447</v>
+        <v>1294506205.450395</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08625820485836504</v>
+        <v>0.08953656329745055</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03877278686018596</v>
+        <v>0.03248710816741988</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2614084391.3822</v>
+        <v>2848894886.204693</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1416179683768284</v>
+        <v>0.1601927378075665</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03697870128435255</v>
+        <v>0.04293306862724803</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1509429809.116952</v>
+        <v>1219974779.382064</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08380061535422638</v>
+        <v>0.09016385314531866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02768208843960565</v>
+        <v>0.02296281762981143</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1204323074.807971</v>
+        <v>1276689936.243802</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07383372929536776</v>
+        <v>0.08763366440823396</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03464716779739844</v>
+        <v>0.03839427092112108</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3072025831.607276</v>
+        <v>2273759626.242784</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1709363179065742</v>
+        <v>0.1233688398184681</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02106378232216668</v>
+        <v>0.02046545550162308</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1804922260.565555</v>
+        <v>2629561992.043558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09278974442480782</v>
+        <v>0.07853768781785404</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03214379382416228</v>
+        <v>0.03070427619560201</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2010295119.17635</v>
+        <v>1695139471.381046</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1107405293619325</v>
+        <v>0.1199072391749377</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03616104791375659</v>
+        <v>0.03961329376764346</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1833838802.791085</v>
+        <v>1551926401.181655</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1797942781846708</v>
+        <v>0.1720993210875605</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02138833001260174</v>
+        <v>0.02713834690647332</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1796580038.546358</v>
+        <v>1764850130.859539</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1487008126720432</v>
+        <v>0.1629760317668524</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05716640076864384</v>
+        <v>0.0489240873326777</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2044638822.957245</v>
+        <v>2096546351.569356</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1633845266988594</v>
+        <v>0.1189891388212319</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02986029254416625</v>
+        <v>0.03522912035367572</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3908979337.725275</v>
+        <v>3573880620.23094</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1066259639745223</v>
+        <v>0.1132038409542553</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02862578433778125</v>
+        <v>0.03142443339095222</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>73</v>
+      </c>
+      <c r="J42" t="n">
+        <v>191</v>
+      </c>
+      <c r="K42" t="n">
+        <v>127.4351922135409</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1866557152.07273</v>
+        <v>2902155507.583865</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1864338212289005</v>
+        <v>0.2056464078146539</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01625434392750531</v>
+        <v>0.02552379970428221</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1872543651.219012</v>
+        <v>1618255666.513394</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08793173740627569</v>
+        <v>0.0969693133100956</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02935344778975269</v>
+        <v>0.03628348917855642</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1664728403.27401</v>
+        <v>1567404727.444733</v>
       </c>
       <c r="F45" t="n">
-        <v>0.153961696209518</v>
+        <v>0.1180161990034889</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03441771221688031</v>
+        <v>0.03588856371840483</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4968916760.173444</v>
+        <v>5337751148.002554</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1670496312335424</v>
+        <v>0.1726083762655313</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05689458129578267</v>
+        <v>0.04600112023464165</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>108</v>
+      </c>
+      <c r="J46" t="n">
+        <v>191</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3572846081.838324</v>
+        <v>3266597274.623334</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1362428132953044</v>
+        <v>0.1612199037156734</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04874591943755095</v>
+        <v>0.05789271295763689</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>85</v>
+      </c>
+      <c r="J47" t="n">
+        <v>190</v>
+      </c>
+      <c r="K47" t="n">
+        <v>83.93568456977518</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3020018383.120713</v>
+        <v>3459596744.634091</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06828485987085299</v>
+        <v>0.1019335461196152</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03622540274732185</v>
+        <v>0.03748690149829732</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>91</v>
+      </c>
+      <c r="J48" t="n">
+        <v>190</v>
+      </c>
+      <c r="K48" t="n">
+        <v>119.5188269469205</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1887019138.694861</v>
+        <v>1415094525.133063</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1296121662800406</v>
+        <v>0.161543046061945</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03232998677497888</v>
+        <v>0.03382580502474496</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3473945227.322951</v>
+        <v>3818660963.372865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1517445066465062</v>
+        <v>0.1213904935243372</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05011598310163056</v>
+        <v>0.04553398999561065</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>60</v>
+      </c>
+      <c r="J50" t="n">
+        <v>191</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1174817708.340737</v>
+        <v>1366206157.703335</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1197211321107632</v>
+        <v>0.194132844013759</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04987707199218292</v>
+        <v>0.05235377070615375</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5038188499.72401</v>
+        <v>3891983617.036871</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08806175512095044</v>
+        <v>0.1059583420080802</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04667299288047817</v>
+        <v>0.04508136245557828</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>133</v>
+      </c>
+      <c r="J52" t="n">
+        <v>191</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2737956016.27364</v>
+        <v>2915909619.802692</v>
       </c>
       <c r="F53" t="n">
-        <v>0.198078855949836</v>
+        <v>0.2029725619726256</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02143899845286835</v>
+        <v>0.03368272971317036</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4046088853.391395</v>
+        <v>3677258693.828609</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1061347654023335</v>
+        <v>0.1200937196368839</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05222009057721796</v>
+        <v>0.04714884016125799</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>96</v>
+      </c>
+      <c r="J54" t="n">
+        <v>191</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4006849606.635262</v>
+        <v>4755715558.793501</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2043450388617855</v>
+        <v>0.191625793977442</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03032600654705008</v>
+        <v>0.02710395119864135</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>85</v>
+      </c>
+      <c r="J55" t="n">
+        <v>191</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1802226534.307691</v>
+        <v>1481380432.595323</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1620841402726054</v>
+        <v>0.1076723030921861</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05202824914559687</v>
+        <v>0.04769743424810684</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2865493671.482208</v>
+        <v>3642508778.496489</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1672706810460509</v>
+        <v>0.1773589793534398</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02440605984962082</v>
+        <v>0.01918414367653539</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>76</v>
+      </c>
+      <c r="J57" t="n">
+        <v>189</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1312596636.867177</v>
+        <v>1745534641.11752</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1302336089083728</v>
+        <v>0.137778557819855</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02575395658722051</v>
+        <v>0.03173047065382431</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4686317468.097269</v>
+        <v>3436753955.314308</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08148725623973851</v>
+        <v>0.09488110701794188</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03079329533462582</v>
+        <v>0.0394122563737769</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>92</v>
+      </c>
+      <c r="J59" t="n">
+        <v>190</v>
+      </c>
+      <c r="K59" t="n">
+        <v>105.2891207995308</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2481280813.273603</v>
+        <v>3505223699.669443</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1293022681950045</v>
+        <v>0.1300533337099906</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03178143960054666</v>
+        <v>0.02253323133302177</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2399144091.799928</v>
+        <v>2318480443.634602</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1765170178941917</v>
+        <v>0.1549380645596959</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03125589330327928</v>
+        <v>0.02894983403684553</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1300895550.32325</v>
+        <v>1668075926.264202</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1884508064434121</v>
+        <v>0.1787127613038019</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04344506929124913</v>
+        <v>0.0471609690027979</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3629608050.651003</v>
+        <v>4236140376.92149</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09858489444655076</v>
+        <v>0.06602358096972659</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03876822986737003</v>
+        <v>0.03224356968809685</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>94</v>
+      </c>
+      <c r="J63" t="n">
+        <v>190</v>
+      </c>
+      <c r="K63" t="n">
+        <v>115.0623816558215</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5083284581.605632</v>
+        <v>5078859931.270706</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1610489599401267</v>
+        <v>0.137688921458382</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03382178991563409</v>
+        <v>0.03413625578849538</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>94</v>
+      </c>
+      <c r="J64" t="n">
+        <v>190</v>
+      </c>
+      <c r="K64" t="n">
+        <v>117.0519898455918</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4294555357.077844</v>
+        <v>5064756547.323138</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1119813816625445</v>
+        <v>0.1507691945746713</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03040657050871402</v>
+        <v>0.02714483081831607</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>155</v>
+      </c>
+      <c r="J65" t="n">
+        <v>191</v>
+      </c>
+      <c r="K65" t="n">
+        <v>126.2534366322957</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5678784257.714721</v>
+        <v>5202090790.518651</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1627970042663826</v>
+        <v>0.1328033788797696</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03292958457319229</v>
+        <v>0.04842133821346305</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>94</v>
+      </c>
+      <c r="J66" t="n">
+        <v>190</v>
+      </c>
+      <c r="K66" t="n">
+        <v>112.8006675966579</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2208238169.127906</v>
+        <v>3093539623.894577</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06824630108082072</v>
+        <v>0.1023710591145907</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04397127975577314</v>
+        <v>0.04080066078622918</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6082459919.253937</v>
+        <v>5577461842.955492</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1097123447107788</v>
+        <v>0.1124374110199311</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0359053871882641</v>
+        <v>0.03746092176896507</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>96</v>
+      </c>
+      <c r="J68" t="n">
+        <v>191</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1783089475.872819</v>
+        <v>2155729473.735958</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1172563227063519</v>
+        <v>0.1451801318635059</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04503857747018354</v>
+        <v>0.05214013758018937</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3357752090.040173</v>
+        <v>2345187460.542466</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09769697623565973</v>
+        <v>0.06882201115454775</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03655441190250532</v>
+        <v>0.03800386017652973</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
+        <v>190</v>
+      </c>
+      <c r="K70" t="n">
+        <v>48.83024496177943</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5023900728.09856</v>
+        <v>4494640931.430634</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1680525321238995</v>
+        <v>0.1602301864205849</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03413083381525325</v>
+        <v>0.03048753693404426</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>148</v>
+      </c>
+      <c r="J71" t="n">
+        <v>190</v>
+      </c>
+      <c r="K71" t="n">
+        <v>123.8883407474557</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1499229048.615316</v>
+        <v>1951356884.99071</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1057872277575072</v>
+        <v>0.1048229787308135</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05194106452363836</v>
+        <v>0.0520838583628765</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3069920743.906216</v>
+        <v>2356583079.631717</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0990083751289392</v>
+        <v>0.10462321546107</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05076074959005258</v>
+        <v>0.03730717888805214</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3556599625.15845</v>
+        <v>3163799884.352332</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1279545598350374</v>
+        <v>0.1436667710293142</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03031136779813559</v>
+        <v>0.03499563519890737</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>189</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2491572754.005018</v>
+        <v>1907552702.320236</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1035402400988012</v>
+        <v>0.1009412768151465</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03446554068978872</v>
+        <v>0.02673328648185163</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3638258189.037909</v>
+        <v>4724397305.16387</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0940241674913851</v>
+        <v>0.09041962064530873</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02765922429248941</v>
+        <v>0.02238383257231336</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>87</v>
+      </c>
+      <c r="J76" t="n">
+        <v>190</v>
+      </c>
+      <c r="K76" t="n">
+        <v>104.821035381969</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1891355895.915526</v>
+        <v>2311690408.67232</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1300881910800947</v>
+        <v>0.1724284841500802</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0191975368260463</v>
+        <v>0.02718617452397518</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4034943748.893948</v>
+        <v>3809006814.797077</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1096556066418235</v>
+        <v>0.1235677726734719</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05643876503123327</v>
+        <v>0.04413322548875166</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>97</v>
+      </c>
+      <c r="J78" t="n">
+        <v>191</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1650673663.162034</v>
+        <v>1371618434.2352</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1490741965835755</v>
+        <v>0.1374845332954333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03731766486576134</v>
+        <v>0.03223874385193348</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5211109476.363993</v>
+        <v>4764674043.433248</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09066468568042985</v>
+        <v>0.06897461371057621</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02495249932447092</v>
+        <v>0.02370952177875178</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>93</v>
+      </c>
+      <c r="J80" t="n">
+        <v>191</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3394689756.626607</v>
+        <v>4205424583.650421</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1034364890267842</v>
+        <v>0.09160053790247188</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02177216614548322</v>
+        <v>0.02384839800957121</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>87</v>
+      </c>
+      <c r="J81" t="n">
+        <v>191</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4411181958.894358</v>
+        <v>4899689425.618342</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2128385116278964</v>
+        <v>0.1823908802106595</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02357026355062533</v>
+        <v>0.02007502350406218</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>141</v>
+      </c>
+      <c r="J82" t="n">
+        <v>191</v>
+      </c>
+      <c r="K82" t="n">
+        <v>131.1512750977834</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2227605610.457597</v>
+        <v>1853818081.061249</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09883108914226918</v>
+        <v>0.112473476432256</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02812386069584984</v>
+        <v>0.03477937944588189</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1682601835.310715</v>
+        <v>1720520530.264979</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07433090665160615</v>
+        <v>0.107778288615076</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03647219660080884</v>
+        <v>0.03334925079311995</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2258176577.943811</v>
+        <v>2747479415.893637</v>
       </c>
       <c r="F85" t="n">
-        <v>0.166647140022047</v>
+        <v>0.1351256192561681</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0356751886162518</v>
+        <v>0.03814066240818129</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2097835943.702366</v>
+        <v>2789060152.324845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1215212234332774</v>
+        <v>0.1627311508806122</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02332168591080023</v>
+        <v>0.02542903165315888</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083668027.463417</v>
+        <v>963269466.1528617</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1515055695072376</v>
+        <v>0.1210929634153398</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03381022588810495</v>
+        <v>0.03185213515595165</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3203730142.167962</v>
+        <v>3198122171.078381</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1230988708346885</v>
+        <v>0.1408805619564823</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02587588724526635</v>
+        <v>0.03614327271102612</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3582,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3161840901.741404</v>
+        <v>3007016334.445888</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1569673411071069</v>
+        <v>0.1481695027172884</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0263232303261369</v>
+        <v>0.02860321289397406</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="n">
+        <v>94.25577521011807</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1587140204.52185</v>
+        <v>2065026169.053551</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1101622685722047</v>
+        <v>0.09732474214987846</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04312596484460523</v>
+        <v>0.04049560824382245</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2060462134.95488</v>
+        <v>1666532057.125252</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1947139095197763</v>
+        <v>0.1758899369797665</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03728921213912773</v>
+        <v>0.05703796972298208</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2649472174.584024</v>
+        <v>2252769503.707678</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09890795006519754</v>
+        <v>0.08691560034859341</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04010984866285237</v>
+        <v>0.03691391910371224</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3091659878.893449</v>
+        <v>3876342913.421784</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1033599114420966</v>
+        <v>0.1103400844399346</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04298083277588183</v>
+        <v>0.04755773623870892</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>86</v>
+      </c>
+      <c r="J93" t="n">
+        <v>190</v>
+      </c>
+      <c r="K93" t="n">
+        <v>118.1446178569425</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2318021607.588478</v>
+        <v>2363225551.64627</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1413776874787598</v>
+        <v>0.1596125709177362</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03390819515906532</v>
+        <v>0.02856442161134055</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2362564263.937943</v>
+        <v>3084868220.558808</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1195521976423791</v>
+        <v>0.09020590280447748</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0512232855853848</v>
+        <v>0.0445289165416501</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2207652836.25426</v>
+        <v>1675562130.406434</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09212688102208599</v>
+        <v>0.1030662843248389</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03965215796390043</v>
+        <v>0.03662617505168687</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3628880231.373508</v>
+        <v>5060058862.821782</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1529000970734036</v>
+        <v>0.14439840130719</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01861546653507012</v>
+        <v>0.02610825957145701</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>92</v>
+      </c>
+      <c r="J97" t="n">
+        <v>191</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3436935962.045352</v>
+        <v>3835712714.489184</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08433573883586579</v>
+        <v>0.1204607954981286</v>
       </c>
       <c r="G98" t="n">
-        <v>0.031776560787606</v>
+        <v>0.03191705474419007</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>46</v>
+      </c>
+      <c r="J98" t="n">
+        <v>191</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2931631575.27001</v>
+        <v>2560223268.111866</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09733834958598424</v>
+        <v>0.1358517284206078</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02719973313163191</v>
+        <v>0.03126055416494351</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4098630972.313489</v>
+        <v>4565993481.972714</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1223713128016866</v>
+        <v>0.1085842100441804</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02728657933536239</v>
+        <v>0.02231876944823454</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>79</v>
+      </c>
+      <c r="J100" t="n">
+        <v>191</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2429944551.391831</v>
+        <v>2435666621.583408</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1718565469659395</v>
+        <v>0.1467516291810776</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04660601229955589</v>
+        <v>0.05640991321034854</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
